--- a/python_report/state_files/DD.xlsx
+++ b/python_report/state_files/DD.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\state_08.04.2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\Python Excel Reporting\python_report\state_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -627,7 +627,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="37" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="37" applyBorder="1"/>
@@ -657,7 +657,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="37" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -668,7 +667,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -756,9 +754,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10067125090801841"/>
-          <c:y val="7.7957091572543338E-2"/>
+          <c:y val="8.3445491251682366E-2"/>
           <c:w val="0.89038128580869624"/>
-          <c:h val="0.79435588136850188"/>
+          <c:h val="0.77523553162853298"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -787,79 +785,79 @@
             <c:numRef>
               <c:f>Sheet1!$B$9:$B$32</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>275</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>277</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>277</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>277</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>278</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>278</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>281</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>282</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>282</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>282</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>282</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>282</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>282</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>282</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>282</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>282</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>240</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>255</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>261</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>261</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>282</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>282</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>264</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,76 +888,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>303</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>304</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>298</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>275</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>294</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>298</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>294</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>297</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>285</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>289</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>301</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>291</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>297</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>289</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>290</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>278</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>281</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>284</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>282</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>274</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,11 +972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="586565248"/>
-        <c:axId val="586572696"/>
+        <c:axId val="533620648"/>
+        <c:axId val="533615552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="586565248"/>
+        <c:axId val="533620648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +999,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Hour</a:t>
                 </a:r>
               </a:p>
@@ -1012,7 +1010,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.50783056480356059"/>
-              <c:y val="0.93414105494877653"/>
+              <c:y val="0.93001345895020193"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1052,7 +1050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586572696"/>
+        <c:crossAx val="533615552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1062,7 +1060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="586572696"/>
+        <c:axId val="533615552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1093,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Allocation / Demand</a:t>
                 </a:r>
               </a:p>
@@ -1106,7 +1104,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="5.5928411633109623E-3"/>
-              <c:y val="0.29973160612987892"/>
+              <c:y val="0.28667563930013457"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1117,7 +1115,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1146,7 +1144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586565248"/>
+        <c:crossAx val="533620648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1192,10 +1190,10 @@
           <c:yMode val="edge"/>
           <c:wMode val="edge"/>
           <c:hMode val="edge"/>
-          <c:x val="0.66219309834592821"/>
-          <c:y val="0.94354965709931415"/>
-          <c:w val="0.96532544170233747"/>
-          <c:h val="0.99596901193802378"/>
+          <c:x val="0.66331166657859042"/>
+          <c:y val="0.94347240915208619"/>
+          <c:w val="0.96644400993499968"/>
+          <c:h val="0.99596231493943477"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1289,9 +1287,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12443953000166957"/>
+          <c:x val="0.12485946115470616"/>
           <c:y val="0.13896457765667575"/>
-          <c:w val="0.8531394804618968"/>
+          <c:w val="0.85264388788529066"/>
           <c:h val="0.6975476839237057"/>
         </c:manualLayout>
       </c:layout>
@@ -1373,76 +1371,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>303</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>304</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>298</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>275</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>294</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>298</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>294</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>297</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>285</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>289</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>301</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>291</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>297</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>289</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>290</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>278</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>281</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>284</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>282</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>274</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,11 +1457,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="586565640"/>
-        <c:axId val="586566032"/>
+        <c:axId val="533617904"/>
+        <c:axId val="533617512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="586565640"/>
+        <c:axId val="533617904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1484,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Hour</a:t>
                 </a:r>
               </a:p>
@@ -1496,7 +1494,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.51457422642797457"/>
+              <c:x val="0.51518583799072359"/>
               <c:y val="0.90871934604904636"/>
             </c:manualLayout>
           </c:layout>
@@ -1537,7 +1535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586566032"/>
+        <c:crossAx val="533617512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1547,7 +1545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="586566032"/>
+        <c:axId val="533617512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1571,7 +1569,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Demand</a:t>
                 </a:r>
               </a:p>
@@ -1581,8 +1579,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6816143497757848E-2"/>
-              <c:y val="0.41825613079019075"/>
+              <c:x val="1.9122609673790775E-2"/>
+              <c:y val="0.41416893732970028"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1622,7 +1620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586565640"/>
+        <c:crossAx val="533617904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -1648,9 +1646,9 @@
           <c:yMode val="edge"/>
           <c:wMode val="edge"/>
           <c:hMode val="edge"/>
-          <c:x val="0.71973129479891251"/>
+          <c:x val="0.71991036553501686"/>
           <c:y val="0.94414168937329701"/>
-          <c:w val="0.87668208514294466"/>
+          <c:w val="0.87739079859112101"/>
           <c:h val="0.99591280653950953"/>
         </c:manualLayout>
       </c:layout>
@@ -1736,12 +1734,12 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1050" name="Chart 3"/>
+        <xdr:cNvPr id="1064" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1771,14 +1769,14 @@
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2072" name="Chart 1"/>
+        <xdr:cNvPr id="2086" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1832,7 +1830,6 @@
       <sheetName val="28"/>
       <sheetName val="29"/>
       <sheetName val="30"/>
-      <sheetName val="31"/>
       <sheetName val="Total Consumption"/>
     </sheetNames>
     <sheetDataSet>
@@ -1841,135 +1838,135 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
+      <sheetData sheetId="5">
         <row r="5">
           <cell r="J5">
-            <v>303</v>
+            <v>313</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>304</v>
+            <v>318</v>
           </cell>
         </row>
         <row r="7">
           <cell r="J7">
-            <v>300</v>
+            <v>316</v>
           </cell>
         </row>
         <row r="8">
           <cell r="J8">
-            <v>298</v>
+            <v>311</v>
           </cell>
         </row>
         <row r="9">
           <cell r="J9">
-            <v>294</v>
+            <v>306</v>
           </cell>
         </row>
         <row r="10">
           <cell r="J10">
-            <v>292</v>
+            <v>308</v>
           </cell>
         </row>
         <row r="11">
           <cell r="J11">
-            <v>287</v>
+            <v>305</v>
           </cell>
         </row>
         <row r="12">
           <cell r="J12">
-            <v>275</v>
+            <v>298</v>
           </cell>
         </row>
         <row r="13">
           <cell r="J13">
-            <v>294</v>
+            <v>334</v>
           </cell>
         </row>
         <row r="14">
           <cell r="J14">
-            <v>298</v>
+            <v>348</v>
           </cell>
         </row>
         <row r="15">
           <cell r="J15">
-            <v>294</v>
+            <v>346</v>
           </cell>
         </row>
         <row r="16">
           <cell r="J16">
-            <v>297</v>
+            <v>345</v>
           </cell>
         </row>
         <row r="17">
           <cell r="J17">
-            <v>285</v>
+            <v>333</v>
           </cell>
         </row>
         <row r="18">
           <cell r="J18">
-            <v>289</v>
+            <v>348</v>
           </cell>
         </row>
         <row r="19">
           <cell r="J19">
-            <v>301</v>
+            <v>350</v>
           </cell>
         </row>
         <row r="20">
           <cell r="J20">
-            <v>291</v>
+            <v>350</v>
           </cell>
         </row>
         <row r="21">
           <cell r="J21">
-            <v>297</v>
+            <v>347</v>
           </cell>
         </row>
         <row r="22">
           <cell r="J22">
-            <v>289</v>
+            <v>348</v>
           </cell>
         </row>
         <row r="23">
           <cell r="J23">
-            <v>290</v>
+            <v>335</v>
           </cell>
         </row>
         <row r="24">
           <cell r="J24">
-            <v>278</v>
+            <v>318</v>
           </cell>
         </row>
         <row r="25">
           <cell r="J25">
-            <v>281</v>
+            <v>324</v>
           </cell>
         </row>
         <row r="26">
           <cell r="J26">
-            <v>284</v>
+            <v>327</v>
           </cell>
         </row>
         <row r="27">
           <cell r="J27">
-            <v>282</v>
+            <v>329</v>
           </cell>
         </row>
         <row r="28">
           <cell r="J28">
-            <v>274</v>
+            <v>321</v>
           </cell>
         </row>
         <row r="42">
           <cell r="F42">
-            <v>6.9959999999999942</v>
+            <v>7.9049600000000027</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -1993,7 +1990,6 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2010,39 +2006,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2077,7 +2073,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2121,166 +2117,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -2289,13 +2261,13 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
   </cols>
@@ -2325,11 +2297,11 @@
       <c r="D3" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="23">
-        <v>43316</v>
+      <c r="B5" s="22">
+        <v>43257</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -2342,7 +2314,7 @@
       <c r="C7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2350,20 +2322,20 @@
       <c r="A8" s="13"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="25"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="21">
-        <v>275</v>
+      <c r="B9" s="10">
+        <v>289</v>
       </c>
       <c r="C9" s="10">
-        <f>'[1]8'!$J$5</f>
-        <v>303</v>
-      </c>
-      <c r="D9" s="25" t="s">
+        <f>'[1]6'!$J$5</f>
+        <v>313</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="18"/>
@@ -2372,14 +2344,14 @@
       <c r="A10" s="13">
         <v>2</v>
       </c>
-      <c r="B10" s="21">
-        <v>277</v>
+      <c r="B10" s="10">
+        <v>288</v>
       </c>
       <c r="C10" s="10">
-        <f>'[1]8'!$J$6</f>
-        <v>304</v>
-      </c>
-      <c r="D10" s="25" t="s">
+        <f>'[1]6'!$J$6</f>
+        <v>318</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="18"/>
@@ -2388,14 +2360,14 @@
       <c r="A11" s="13">
         <v>3</v>
       </c>
-      <c r="B11" s="21">
-        <v>277</v>
+      <c r="B11" s="10">
+        <v>288</v>
       </c>
       <c r="C11" s="10">
-        <f>'[1]8'!$J$7</f>
-        <v>300</v>
-      </c>
-      <c r="D11" s="25" t="s">
+        <f>'[1]6'!$J$7</f>
+        <v>316</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="18"/>
@@ -2413,14 +2385,14 @@
       <c r="A12" s="13">
         <v>4</v>
       </c>
-      <c r="B12" s="21">
-        <v>277</v>
+      <c r="B12" s="10">
+        <v>288</v>
       </c>
       <c r="C12" s="10">
-        <f>'[1]8'!$J$8</f>
-        <v>298</v>
-      </c>
-      <c r="D12" s="25" t="s">
+        <f>'[1]6'!$J$8</f>
+        <v>311</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="18"/>
@@ -2438,14 +2410,14 @@
       <c r="A13" s="13">
         <v>5</v>
       </c>
-      <c r="B13" s="21">
-        <v>280</v>
+      <c r="B13" s="10">
+        <v>288</v>
       </c>
       <c r="C13" s="10">
-        <f>'[1]8'!$J$9</f>
-        <v>294</v>
-      </c>
-      <c r="D13" s="25" t="s">
+        <f>'[1]6'!$J$9</f>
+        <v>306</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="18"/>
@@ -2454,14 +2426,14 @@
       <c r="A14" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="21">
-        <v>278</v>
+      <c r="B14" s="10">
+        <v>290</v>
       </c>
       <c r="C14" s="10">
-        <f>'[1]8'!$J$10</f>
-        <v>292</v>
-      </c>
-      <c r="D14" s="25" t="s">
+        <f>'[1]6'!$J$10</f>
+        <v>308</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="18"/>
@@ -2470,14 +2442,14 @@
       <c r="A15" s="13">
         <v>7</v>
       </c>
-      <c r="B15" s="21">
-        <v>278</v>
+      <c r="B15" s="10">
+        <v>290</v>
       </c>
       <c r="C15" s="10">
-        <f>'[1]8'!$J$11</f>
-        <v>287</v>
-      </c>
-      <c r="D15" s="25" t="s">
+        <f>'[1]6'!$J$11</f>
+        <v>305</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="18"/>
@@ -2486,14 +2458,14 @@
       <c r="A16" s="13">
         <v>8</v>
       </c>
-      <c r="B16" s="21">
-        <v>281</v>
+      <c r="B16" s="10">
+        <v>291</v>
       </c>
       <c r="C16" s="10">
-        <f>'[1]8'!$J$12</f>
-        <v>275</v>
-      </c>
-      <c r="D16" s="25" t="s">
+        <f>'[1]6'!$J$12</f>
+        <v>298</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="18"/>
@@ -2502,14 +2474,14 @@
       <c r="A17" s="13">
         <v>9</v>
       </c>
-      <c r="B17" s="21">
-        <v>282</v>
+      <c r="B17" s="10">
+        <v>292</v>
       </c>
       <c r="C17" s="10">
-        <f>'[1]8'!$J$13</f>
-        <v>294</v>
-      </c>
-      <c r="D17" s="25" t="s">
+        <f>'[1]6'!$J$13</f>
+        <v>334</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="18"/>
@@ -2518,14 +2490,14 @@
       <c r="A18" s="13">
         <v>10</v>
       </c>
-      <c r="B18" s="21">
-        <v>282</v>
+      <c r="B18" s="10">
+        <v>318</v>
       </c>
       <c r="C18" s="10">
-        <f>'[1]8'!$J$14</f>
-        <v>298</v>
-      </c>
-      <c r="D18" s="25" t="s">
+        <f>'[1]6'!$J$14</f>
+        <v>348</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="18"/>
@@ -2534,14 +2506,14 @@
       <c r="A19" s="13">
         <v>11</v>
       </c>
-      <c r="B19" s="21">
-        <v>282</v>
+      <c r="B19" s="10">
+        <v>317</v>
       </c>
       <c r="C19" s="10">
-        <f>'[1]8'!$J$15</f>
-        <v>294</v>
-      </c>
-      <c r="D19" s="25" t="s">
+        <f>'[1]6'!$J$15</f>
+        <v>346</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="18"/>
@@ -2550,14 +2522,14 @@
       <c r="A20" s="13">
         <v>12</v>
       </c>
-      <c r="B20" s="21">
-        <v>282</v>
+      <c r="B20" s="10">
+        <v>317</v>
       </c>
       <c r="C20" s="10">
-        <f>'[1]8'!$J$16</f>
-        <v>297</v>
-      </c>
-      <c r="D20" s="25" t="s">
+        <f>'[1]6'!$J$16</f>
+        <v>345</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="18"/>
@@ -2566,14 +2538,14 @@
       <c r="A21" s="13">
         <v>13</v>
       </c>
-      <c r="B21" s="21">
-        <v>282</v>
+      <c r="B21" s="10">
+        <v>318</v>
       </c>
       <c r="C21" s="10">
-        <f>'[1]8'!$J$17</f>
-        <v>285</v>
-      </c>
-      <c r="D21" s="25" t="s">
+        <f>'[1]6'!$J$17</f>
+        <v>333</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="18"/>
@@ -2582,14 +2554,14 @@
       <c r="A22" s="13">
         <v>14</v>
       </c>
-      <c r="B22" s="21">
-        <v>282</v>
+      <c r="B22" s="10">
+        <v>326</v>
       </c>
       <c r="C22" s="10">
-        <f>'[1]8'!$J$18</f>
-        <v>289</v>
-      </c>
-      <c r="D22" s="25" t="s">
+        <f>'[1]6'!$J$18</f>
+        <v>348</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="18"/>
@@ -2598,14 +2570,14 @@
       <c r="A23" s="13">
         <v>15</v>
       </c>
-      <c r="B23" s="21">
-        <v>282</v>
+      <c r="B23" s="10">
+        <v>325</v>
       </c>
       <c r="C23" s="10">
-        <f>'[1]8'!$J$19</f>
-        <v>301</v>
-      </c>
-      <c r="D23" s="25" t="s">
+        <f>'[1]6'!$J$19</f>
+        <v>350</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="18"/>
@@ -2614,14 +2586,14 @@
       <c r="A24" s="13">
         <v>16</v>
       </c>
-      <c r="B24" s="21">
-        <v>282</v>
+      <c r="B24" s="10">
+        <v>326</v>
       </c>
       <c r="C24" s="10">
-        <f>'[1]8'!$J$20</f>
-        <v>291</v>
-      </c>
-      <c r="D24" s="25" t="s">
+        <f>'[1]6'!$J$20</f>
+        <v>350</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="18"/>
@@ -2630,14 +2602,14 @@
       <c r="A25" s="13">
         <v>17</v>
       </c>
-      <c r="B25" s="21">
-        <v>282</v>
+      <c r="B25" s="10">
+        <v>313</v>
       </c>
       <c r="C25" s="10">
-        <f>'[1]8'!$J$21</f>
-        <v>297</v>
-      </c>
-      <c r="D25" s="25" t="s">
+        <f>'[1]6'!$J$21</f>
+        <v>347</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="18"/>
@@ -2646,14 +2618,14 @@
       <c r="A26" s="13">
         <v>18</v>
       </c>
-      <c r="B26" s="21">
-        <v>240</v>
+      <c r="B26" s="10">
+        <v>321</v>
       </c>
       <c r="C26" s="10">
-        <f>'[1]8'!$J$22</f>
-        <v>289</v>
-      </c>
-      <c r="D26" s="25" t="s">
+        <f>'[1]6'!$J$22</f>
+        <v>348</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="18"/>
@@ -2662,14 +2634,14 @@
       <c r="A27" s="13">
         <v>19</v>
       </c>
-      <c r="B27" s="21">
-        <v>255</v>
+      <c r="B27" s="10">
+        <v>321</v>
       </c>
       <c r="C27" s="10">
-        <f>'[1]8'!$J$23</f>
-        <v>290</v>
-      </c>
-      <c r="D27" s="25" t="s">
+        <f>'[1]6'!$J$23</f>
+        <v>335</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="18"/>
@@ -2678,14 +2650,14 @@
       <c r="A28" s="13">
         <v>20</v>
       </c>
-      <c r="B28" s="21">
-        <v>261</v>
+      <c r="B28" s="10">
+        <v>301</v>
       </c>
       <c r="C28" s="10">
-        <f>'[1]8'!$J$24</f>
-        <v>278</v>
-      </c>
-      <c r="D28" s="25" t="s">
+        <f>'[1]6'!$J$24</f>
+        <v>318</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="18"/>
@@ -2694,14 +2666,14 @@
       <c r="A29" s="13">
         <v>21</v>
       </c>
-      <c r="B29" s="21">
-        <v>261</v>
+      <c r="B29" s="10">
+        <v>301</v>
       </c>
       <c r="C29" s="10">
-        <f>'[1]8'!$J$25</f>
-        <v>281</v>
-      </c>
-      <c r="D29" s="25" t="s">
+        <f>'[1]6'!$J$25</f>
+        <v>324</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="18"/>
@@ -2710,14 +2682,14 @@
       <c r="A30" s="13">
         <v>22</v>
       </c>
-      <c r="B30" s="21">
-        <v>282</v>
+      <c r="B30" s="10">
+        <v>298</v>
       </c>
       <c r="C30" s="10">
-        <f>'[1]8'!$J$26</f>
-        <v>284</v>
-      </c>
-      <c r="D30" s="25" t="s">
+        <f>'[1]6'!$J$26</f>
+        <v>327</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="18"/>
@@ -2726,14 +2698,14 @@
       <c r="A31" s="13">
         <v>23</v>
       </c>
-      <c r="B31" s="21">
-        <v>282</v>
+      <c r="B31" s="10">
+        <v>298</v>
       </c>
       <c r="C31" s="10">
-        <f>'[1]8'!$J$27</f>
-        <v>282</v>
-      </c>
-      <c r="D31" s="25" t="s">
+        <f>'[1]6'!$J$27</f>
+        <v>329</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="18"/>
@@ -2742,28 +2714,25 @@
       <c r="A32" s="13">
         <v>24</v>
       </c>
-      <c r="B32" s="21">
-        <v>264</v>
+      <c r="B32" s="10">
+        <v>293</v>
       </c>
       <c r="C32" s="10">
-        <f>'[1]8'!$J$28</f>
-        <v>274</v>
-      </c>
-      <c r="D32" s="25" t="s">
+        <f>'[1]6'!$J$28</f>
+        <v>321</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="14">
-        <f>'[1]8'!$F$42</f>
-        <v>6.9959999999999942</v>
+        <f>'[1]6'!$F$42</f>
+        <v>7.9049600000000027</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>3</v>
@@ -2784,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:J1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.35"/>
@@ -2796,17 +2765,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="24">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="23">
         <f>Sheet1!B5</f>
-        <v>43316</v>
+        <v>43257</v>
       </c>
     </row>
   </sheetData>
@@ -2826,8 +2795,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="D1:H1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.35"/>
@@ -2838,15 +2807,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="24">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="23">
         <f>Sheet1!B5</f>
-        <v>43316</v>
+        <v>43257</v>
       </c>
     </row>
   </sheetData>
